--- a/18.09.2023/variant-7/source/9-2.xlsx
+++ b/18.09.2023/variant-7/source/9-2.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Новая папка\РТТ\1 ЕГЭ\Информатика\2021\20 вариантов\Информатика-ЕГЭ\9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letkh\Documents\GitHub\Informatika23-24\18.09.2023\variant-7\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8092FC5-20CB-45E0-9BDD-742AE64E3AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Нечётные варианты" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -357,16 +364,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -440,7 +447,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43831</v>
       </c>
@@ -516,8 +523,16 @@
       <c r="Y2" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3">
+        <f>MIN(B2:Y92)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>Z2-Z3</f>
+        <v>-10.16533882783882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43832</v>
       </c>
@@ -593,8 +608,12 @@
       <c r="Y3" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="3">
+        <f>AVERAGE(B2:Y92)</f>
+        <v>10.465338827838821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43833</v>
       </c>
@@ -671,7 +690,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43834</v>
       </c>
@@ -748,7 +767,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43835</v>
       </c>
@@ -825,7 +844,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43836</v>
       </c>
@@ -902,7 +921,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43837</v>
       </c>
@@ -979,7 +998,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43838</v>
       </c>
@@ -1056,7 +1075,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43839</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43840</v>
       </c>
@@ -1210,7 +1229,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43841</v>
       </c>
@@ -1287,7 +1306,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43842</v>
       </c>
@@ -1364,7 +1383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43843</v>
       </c>
@@ -1441,7 +1460,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43844</v>
       </c>
@@ -1518,7 +1537,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43845</v>
       </c>
